--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,93 +43,84 @@
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -148,163 +139,163 @@
     <t>nice</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>alert</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>save</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
+    <t>gt</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>food</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -670,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -781,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -831,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,16 +843,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -931,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8515625</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,49 +1022,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>92</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="L9">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <v>40</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6952054794520548</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,31 +1090,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
+        <v>106</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5897435897435898</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,49 +1222,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.8028169014084507</v>
-      </c>
-      <c r="L13">
-        <v>114</v>
-      </c>
-      <c r="M13">
-        <v>114</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5161290322580645</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7894736842105263</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4736842105263158</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4054054054054054</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1449,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3866666666666667</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1581,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3691275167785235</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.73125</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3611111111111111</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3513513513513514</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1731,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3391472868217054</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C23">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.68125</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L23">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3376623376623377</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6808510638297872</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6511627906976745</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3121693121693122</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,49 +1922,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.288135593220339</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>17</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>42</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L27">
-        <v>22</v>
-      </c>
-      <c r="M27">
-        <v>22</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2711864406779661</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1999,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6083550913838121</v>
+        <v>0.6031331592689295</v>
       </c>
       <c r="L28">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M28">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2549019607843137</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
         <v>29</v>
@@ -2073,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2545454545454545</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,186 +2090,114 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.575</v>
+      </c>
+      <c r="L30">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.5676470588235294</v>
+      </c>
+      <c r="L31">
+        <v>193</v>
+      </c>
+      <c r="M31">
+        <v>193</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K30">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>14</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="C31">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>45</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>207</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K33">
+        <v>0.5322033898305085</v>
+      </c>
+      <c r="L33">
+        <v>157</v>
+      </c>
+      <c r="M33">
+        <v>157</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>74</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.5558823529411765</v>
-      </c>
-      <c r="L32">
-        <v>189</v>
-      </c>
-      <c r="M32">
-        <v>189</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1018766756032172</v>
-      </c>
-      <c r="C33">
-        <v>38</v>
-      </c>
-      <c r="D33">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>335</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5084745762711864</v>
-      </c>
-      <c r="L33">
-        <v>150</v>
-      </c>
-      <c r="M33">
-        <v>150</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="K34">
         <v>0.5056179775280899</v>
@@ -2302,272 +2221,272 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.4644351464435146</v>
+      </c>
+      <c r="L36">
+        <v>111</v>
+      </c>
+      <c r="M36">
+        <v>111</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="M35">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
+      <c r="K38">
+        <v>0.4186046511627907</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K36">
-        <v>0.4560669456066946</v>
-      </c>
-      <c r="L36">
-        <v>109</v>
-      </c>
-      <c r="M36">
-        <v>109</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
+      <c r="K39">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K37">
-        <v>0.453125</v>
-      </c>
-      <c r="L37">
-        <v>29</v>
-      </c>
-      <c r="M37">
-        <v>29</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
+      <c r="K40">
+        <v>0.375</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K38">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="L38">
-        <v>15</v>
-      </c>
-      <c r="M38">
-        <v>15</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
+      <c r="K41">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K39">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
+      <c r="K42">
+        <v>0.3692307692307693</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>26</v>
-      </c>
-      <c r="M40">
-        <v>26</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
+      <c r="K43">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K41">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L41">
-        <v>28</v>
-      </c>
-      <c r="M41">
-        <v>28</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
+      <c r="K44">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K42">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L43">
-        <v>27</v>
-      </c>
-      <c r="M43">
-        <v>27</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.3285714285714286</v>
-      </c>
-      <c r="L44">
-        <v>23</v>
-      </c>
-      <c r="M44">
-        <v>23</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K45">
-        <v>0.2765957446808511</v>
+        <v>0.325</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2585,12 +2504,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K46">
         <v>0.2131147540983606</v>
@@ -2614,18 +2533,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>0.1221374045801527</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2637,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>0.1102362204724409</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2663,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.1004784688995215</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2689,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.07932692307692307</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2715,47 +2634,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.07476635514018691</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L51">
         <v>16</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.06046511627906977</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2767,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>202</v>
+        <v>842</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.05480984340044743</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L53">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2793,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>845</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.048834628190899</v>
+        <v>0.04106548279689234</v>
       </c>
       <c r="L54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2819,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.02768166089965398</v>
+        <v>0.04</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2845,111 +2764,111 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>843</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.02523364485981308</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L56">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2086</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.02465331278890601</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>633</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.01482914248871696</v>
+        <v>0.01322154143824573</v>
       </c>
       <c r="L58">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M58">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N58">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O58">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3056</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.01446280991735537</v>
+        <v>0.005317485142320926</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>954</v>
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
